--- a/tables/devedor_distribuir.xlsx
+++ b/tables/devedor_distribuir.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\OneDrive\Área de Trabalho\Distribuicao Equipes\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE32CE8A-A7E8-4328-BC38-92606933A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83DD38C-94BA-448A-89FE-BB3632405565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A28D7D8B-31E8-4B1D-A4D3-D8914A31D18E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A28D7D8B-31E8-4B1D-A4D3-D8914A31D18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
   <si>
     <t>index</t>
   </si>
@@ -48,6 +48,981 @@
   </si>
   <si>
     <t>Qtde</t>
+  </si>
+  <si>
+    <t>005.821.197-74</t>
+  </si>
+  <si>
+    <t>006.484.559-12</t>
+  </si>
+  <si>
+    <t>013.957.571-51</t>
+  </si>
+  <si>
+    <t>002.499.953-95</t>
+  </si>
+  <si>
+    <t>007.517.125-23</t>
+  </si>
+  <si>
+    <t>002.654.642-69</t>
+  </si>
+  <si>
+    <t>002.910.403-30</t>
+  </si>
+  <si>
+    <t>013.312.876-85</t>
+  </si>
+  <si>
+    <t>891.509.965-68</t>
+  </si>
+  <si>
+    <t>839.788.018-68</t>
+  </si>
+  <si>
+    <t>731.893.324-87</t>
+  </si>
+  <si>
+    <t>658.381.309-20</t>
+  </si>
+  <si>
+    <t>709.113.983-68</t>
+  </si>
+  <si>
+    <t>696.176.866-00</t>
+  </si>
+  <si>
+    <t>331.987.302-44</t>
+  </si>
+  <si>
+    <t>402.007.951-04</t>
+  </si>
+  <si>
+    <t>121.101.323-53</t>
+  </si>
+  <si>
+    <t>091.797.057-82</t>
+  </si>
+  <si>
+    <t>044.939.217-14</t>
+  </si>
+  <si>
+    <t>008.124.004-02</t>
+  </si>
+  <si>
+    <t>006.191.817-29</t>
+  </si>
+  <si>
+    <t>000.795.981-88</t>
+  </si>
+  <si>
+    <t>890.154.441-53</t>
+  </si>
+  <si>
+    <t>977.886.607-44</t>
+  </si>
+  <si>
+    <t>822.583.923-49</t>
+  </si>
+  <si>
+    <t>822.958.243-20</t>
+  </si>
+  <si>
+    <t>850.415.994-91</t>
+  </si>
+  <si>
+    <t>844.276.127-68</t>
+  </si>
+  <si>
+    <t>719.415.092-15</t>
+  </si>
+  <si>
+    <t>516.394.593-91</t>
+  </si>
+  <si>
+    <t>584.323.701-00</t>
+  </si>
+  <si>
+    <t>358.909.753-15</t>
+  </si>
+  <si>
+    <t>380.641.201-44</t>
+  </si>
+  <si>
+    <t>401.198.744-15</t>
+  </si>
+  <si>
+    <t>339.722.307-53</t>
+  </si>
+  <si>
+    <t>354.049.573-87</t>
+  </si>
+  <si>
+    <t>290.875.228-00</t>
+  </si>
+  <si>
+    <t>278.371.708-57</t>
+  </si>
+  <si>
+    <t>257.597.795-91</t>
+  </si>
+  <si>
+    <t>270.484.973-00</t>
+  </si>
+  <si>
+    <t>307.524.420-15</t>
+  </si>
+  <si>
+    <t>137.047.058-45</t>
+  </si>
+  <si>
+    <t>144.178.658-92</t>
+  </si>
+  <si>
+    <t>194.412.904-91</t>
+  </si>
+  <si>
+    <t>123.983.812-34</t>
+  </si>
+  <si>
+    <t>087.468.807-80</t>
+  </si>
+  <si>
+    <t>094.488.794-58</t>
+  </si>
+  <si>
+    <t>089.372.899-38</t>
+  </si>
+  <si>
+    <t>104.178.787-10</t>
+  </si>
+  <si>
+    <t>099.533.214-26</t>
+  </si>
+  <si>
+    <t>061.709.184-62</t>
+  </si>
+  <si>
+    <t>051.759.811-61</t>
+  </si>
+  <si>
+    <t>057.200.744-22</t>
+  </si>
+  <si>
+    <t>050.904.353-40</t>
+  </si>
+  <si>
+    <t>054.031.959-71</t>
+  </si>
+  <si>
+    <t>044.284.625-81</t>
+  </si>
+  <si>
+    <t>033.763.148-45</t>
+  </si>
+  <si>
+    <t>018.062.323-08</t>
+  </si>
+  <si>
+    <t>022.707.127-14</t>
+  </si>
+  <si>
+    <t>025.364.785-13</t>
+  </si>
+  <si>
+    <t>008.607.348-62</t>
+  </si>
+  <si>
+    <t>010.674.154-32</t>
+  </si>
+  <si>
+    <t>013.970.733-65</t>
+  </si>
+  <si>
+    <t>013.945.245-10</t>
+  </si>
+  <si>
+    <t>006.334.426-23</t>
+  </si>
+  <si>
+    <t>937.035.204-00</t>
+  </si>
+  <si>
+    <t>094.150.417-49</t>
+  </si>
+  <si>
+    <t>017.726.800-01</t>
+  </si>
+  <si>
+    <t>009.553.449-05</t>
+  </si>
+  <si>
+    <t>554.727.290-68</t>
+  </si>
+  <si>
+    <t>410.689.981-72</t>
+  </si>
+  <si>
+    <t>067.673.435-95</t>
+  </si>
+  <si>
+    <t>805.596.032-15</t>
+  </si>
+  <si>
+    <t>377.242.744-87</t>
+  </si>
+  <si>
+    <t>782.551.634-68</t>
+  </si>
+  <si>
+    <t>445.967.401-78</t>
+  </si>
+  <si>
+    <t>587.045.402-63</t>
+  </si>
+  <si>
+    <t>853.873.712-00</t>
+  </si>
+  <si>
+    <t>735.096.207-04</t>
+  </si>
+  <si>
+    <t>722.549.044-34</t>
+  </si>
+  <si>
+    <t>298.584.454-15</t>
+  </si>
+  <si>
+    <t>037.378.074-50</t>
+  </si>
+  <si>
+    <t>029.146.784-95</t>
+  </si>
+  <si>
+    <t>870.163.201-97</t>
+  </si>
+  <si>
+    <t>937.260.319-87</t>
+  </si>
+  <si>
+    <t>950.098.254-49</t>
+  </si>
+  <si>
+    <t>962.494.396-68</t>
+  </si>
+  <si>
+    <t>894.024.485-00</t>
+  </si>
+  <si>
+    <t>907.698.481-68</t>
+  </si>
+  <si>
+    <t>926.310.613-49</t>
+  </si>
+  <si>
+    <t>924.498.245-53</t>
+  </si>
+  <si>
+    <t>998.928.551-91</t>
+  </si>
+  <si>
+    <t>967.983.513-87</t>
+  </si>
+  <si>
+    <t>889.391.704-15</t>
+  </si>
+  <si>
+    <t>756.301.252-49</t>
+  </si>
+  <si>
+    <t>746.295.494-04</t>
+  </si>
+  <si>
+    <t>794.238.257-53</t>
+  </si>
+  <si>
+    <t>807.229.979-49</t>
+  </si>
+  <si>
+    <t>761.661.122-20</t>
+  </si>
+  <si>
+    <t>768.998.024-49</t>
+  </si>
+  <si>
+    <t>823.071.801-68</t>
+  </si>
+  <si>
+    <t>778.798.563-15</t>
+  </si>
+  <si>
+    <t>851.699.781-20</t>
+  </si>
+  <si>
+    <t>776.171.263-87</t>
+  </si>
+  <si>
+    <t>849.366.307-72</t>
+  </si>
+  <si>
+    <t>754.179.287-04</t>
+  </si>
+  <si>
+    <t>841.354.176-04</t>
+  </si>
+  <si>
+    <t>791.093.651-68</t>
+  </si>
+  <si>
+    <t>654.266.571-49</t>
+  </si>
+  <si>
+    <t>656.981.183-53</t>
+  </si>
+  <si>
+    <t>705.749.144-12</t>
+  </si>
+  <si>
+    <t>625.553.836-20</t>
+  </si>
+  <si>
+    <t>648.041.191-91</t>
+  </si>
+  <si>
+    <t>694.982.021-68</t>
+  </si>
+  <si>
+    <t>729.278.790-87</t>
+  </si>
+  <si>
+    <t>695.919.469-53</t>
+  </si>
+  <si>
+    <t>700.647.682-87</t>
+  </si>
+  <si>
+    <t>700.641.991-34</t>
+  </si>
+  <si>
+    <t>714.719.876-04</t>
+  </si>
+  <si>
+    <t>611.692.743-23</t>
+  </si>
+  <si>
+    <t>603.824.773-40</t>
+  </si>
+  <si>
+    <t>503.311.080-20</t>
+  </si>
+  <si>
+    <t>607.428.447-49</t>
+  </si>
+  <si>
+    <t>468.590.719-15</t>
+  </si>
+  <si>
+    <t>554.074.399-72</t>
+  </si>
+  <si>
+    <t>535.167.022-49</t>
+  </si>
+  <si>
+    <t>502.471.151-34</t>
+  </si>
+  <si>
+    <t>579.388.225-15</t>
+  </si>
+  <si>
+    <t>523.217.703-68</t>
+  </si>
+  <si>
+    <t>556.376.474-53</t>
+  </si>
+  <si>
+    <t>362.332.001-30</t>
+  </si>
+  <si>
+    <t>354.875.378-79</t>
+  </si>
+  <si>
+    <t>403.355.422-04</t>
+  </si>
+  <si>
+    <t>386.941.743-91</t>
+  </si>
+  <si>
+    <t>391.022.701-53</t>
+  </si>
+  <si>
+    <t>427.768.858-65</t>
+  </si>
+  <si>
+    <t>395.795.905-59</t>
+  </si>
+  <si>
+    <t>324.802.103-91</t>
+  </si>
+  <si>
+    <t>292.811.212-04</t>
+  </si>
+  <si>
+    <t>312.570.158-93</t>
+  </si>
+  <si>
+    <t>215.367.244-91</t>
+  </si>
+  <si>
+    <t>206.272.034-34</t>
+  </si>
+  <si>
+    <t>288.367.662-34</t>
+  </si>
+  <si>
+    <t>308.392.461-53</t>
+  </si>
+  <si>
+    <t>130.839.961-87</t>
+  </si>
+  <si>
+    <t>141.595.381-34</t>
+  </si>
+  <si>
+    <t>114.330.324-57</t>
+  </si>
+  <si>
+    <t>147.883.904-00</t>
+  </si>
+  <si>
+    <t>115.906.612-49</t>
+  </si>
+  <si>
+    <t>158.863.938-03</t>
+  </si>
+  <si>
+    <t>178.182.731-15</t>
+  </si>
+  <si>
+    <t>108.062.987-40</t>
+  </si>
+  <si>
+    <t>078.138.802-34</t>
+  </si>
+  <si>
+    <t>082.446.709-40</t>
+  </si>
+  <si>
+    <t>078.148.709-92</t>
+  </si>
+  <si>
+    <t>105.098.414-57</t>
+  </si>
+  <si>
+    <t>090.305.065-04</t>
+  </si>
+  <si>
+    <t>089.222.147-08</t>
+  </si>
+  <si>
+    <t>096.134.237-45</t>
+  </si>
+  <si>
+    <t>102.750.224-55</t>
+  </si>
+  <si>
+    <t>076.808.178-55</t>
+  </si>
+  <si>
+    <t>053.025.839-09</t>
+  </si>
+  <si>
+    <t>054.113.034-00</t>
+  </si>
+  <si>
+    <t>061.574.389-75</t>
+  </si>
+  <si>
+    <t>060.370.275-95</t>
+  </si>
+  <si>
+    <t>051.975.494-83</t>
+  </si>
+  <si>
+    <t>066.676.873-06</t>
+  </si>
+  <si>
+    <t>062.918.784-37</t>
+  </si>
+  <si>
+    <t>057.123.363-59</t>
+  </si>
+  <si>
+    <t>057.013.949-05</t>
+  </si>
+  <si>
+    <t>074.609.479-54</t>
+  </si>
+  <si>
+    <t>062.258.033-78</t>
+  </si>
+  <si>
+    <t>047.466.031-11</t>
+  </si>
+  <si>
+    <t>034.318.283-10</t>
+  </si>
+  <si>
+    <t>040.139.483-20</t>
+  </si>
+  <si>
+    <t>034.725.273-74</t>
+  </si>
+  <si>
+    <t>040.740.039-70</t>
+  </si>
+  <si>
+    <t>032.205.625-07</t>
+  </si>
+  <si>
+    <t>034.495.141-30</t>
+  </si>
+  <si>
+    <t>039.562.264-61</t>
+  </si>
+  <si>
+    <t>049.383.754-00</t>
+  </si>
+  <si>
+    <t>039.931.231-58</t>
+  </si>
+  <si>
+    <t>031.627.843-28</t>
+  </si>
+  <si>
+    <t>028.625.831-54</t>
+  </si>
+  <si>
+    <t>021.445.430-46</t>
+  </si>
+  <si>
+    <t>026.453.904-47</t>
+  </si>
+  <si>
+    <t>022.618.811-69</t>
+  </si>
+  <si>
+    <t>020.111.189-64</t>
+  </si>
+  <si>
+    <t>022.591.633-94</t>
+  </si>
+  <si>
+    <t>010.365.715-05</t>
+  </si>
+  <si>
+    <t>011.887.924-31</t>
+  </si>
+  <si>
+    <t>014.100.333-25</t>
+  </si>
+  <si>
+    <t>009.058.750-28</t>
+  </si>
+  <si>
+    <t>007.240.172-91</t>
+  </si>
+  <si>
+    <t>008.963.680-50</t>
+  </si>
+  <si>
+    <t>003.944.006-07</t>
+  </si>
+  <si>
+    <t>000.755.550-42</t>
+  </si>
+  <si>
+    <t>012.733.672-94</t>
+  </si>
+  <si>
+    <t>007.111.739-31</t>
+  </si>
+  <si>
+    <t>200.251.904-82</t>
+  </si>
+  <si>
+    <t>055.334.299-13</t>
+  </si>
+  <si>
+    <t>020.236.524-72</t>
+  </si>
+  <si>
+    <t>081.272.239-64</t>
+  </si>
+  <si>
+    <t>643.085.452-34</t>
+  </si>
+  <si>
+    <t>604.932.082-91</t>
+  </si>
+  <si>
+    <t>516.215.501-25</t>
+  </si>
+  <si>
+    <t>114.596.895-34</t>
+  </si>
+  <si>
+    <t>867.062.847-34</t>
+  </si>
+  <si>
+    <t>966.708.941-04</t>
+  </si>
+  <si>
+    <t>892.883.351-53</t>
+  </si>
+  <si>
+    <t>808.159.875-87</t>
+  </si>
+  <si>
+    <t>759.645.204-30</t>
+  </si>
+  <si>
+    <t>820.377.015-00</t>
+  </si>
+  <si>
+    <t>816.065.751-04</t>
+  </si>
+  <si>
+    <t>703.878.534-64</t>
+  </si>
+  <si>
+    <t>698.395.657-53</t>
+  </si>
+  <si>
+    <t>644.752.713-04</t>
+  </si>
+  <si>
+    <t>562.946.894-49</t>
+  </si>
+  <si>
+    <t>474.719.133-04</t>
+  </si>
+  <si>
+    <t>556.423.304-20</t>
+  </si>
+  <si>
+    <t>579.312.089-00</t>
+  </si>
+  <si>
+    <t>423.850.558-13</t>
+  </si>
+  <si>
+    <t>358.510.236-00</t>
+  </si>
+  <si>
+    <t>210.620.801-49</t>
+  </si>
+  <si>
+    <t>304.291.962-53</t>
+  </si>
+  <si>
+    <t>258.345.762-49</t>
+  </si>
+  <si>
+    <t>147.817.783-72</t>
+  </si>
+  <si>
+    <t>196.645.163-68</t>
+  </si>
+  <si>
+    <t>091.182.087-62</t>
+  </si>
+  <si>
+    <t>086.086.787-05</t>
+  </si>
+  <si>
+    <t>083.450.937-79</t>
+  </si>
+  <si>
+    <t>100.314.984-77</t>
+  </si>
+  <si>
+    <t>091.917.234-26</t>
+  </si>
+  <si>
+    <t>079.311.327-00</t>
+  </si>
+  <si>
+    <t>082.599.476-41</t>
+  </si>
+  <si>
+    <t>077.181.624-35</t>
+  </si>
+  <si>
+    <t>061.607.955-97</t>
+  </si>
+  <si>
+    <t>053.419.453-28</t>
+  </si>
+  <si>
+    <t>071.347.096-80</t>
+  </si>
+  <si>
+    <t>053.460.697-04</t>
+  </si>
+  <si>
+    <t>054.577.397-08</t>
+  </si>
+  <si>
+    <t>037.513.824-29</t>
+  </si>
+  <si>
+    <t>039.352.559-77</t>
+  </si>
+  <si>
+    <t>025.131.546-06</t>
+  </si>
+  <si>
+    <t>026.752.447-16</t>
+  </si>
+  <si>
+    <t>025.642.661-93</t>
+  </si>
+  <si>
+    <t>030.142.304-05</t>
+  </si>
+  <si>
+    <t>011.829.524-10</t>
+  </si>
+  <si>
+    <t>015.103.914-36</t>
+  </si>
+  <si>
+    <t>002.628.335-22</t>
+  </si>
+  <si>
+    <t>011.841.912-98</t>
+  </si>
+  <si>
+    <t>965.176.627-15</t>
+  </si>
+  <si>
+    <t>883.221.307-91</t>
+  </si>
+  <si>
+    <t>966.094.784-49</t>
+  </si>
+  <si>
+    <t>742.788.943-68</t>
+  </si>
+  <si>
+    <t>814.066.811-72</t>
+  </si>
+  <si>
+    <t>821.079.631-34</t>
+  </si>
+  <si>
+    <t>796.952.566-00</t>
+  </si>
+  <si>
+    <t>623.469.115-34</t>
+  </si>
+  <si>
+    <t>665.451.294-49</t>
+  </si>
+  <si>
+    <t>616.711.859-00</t>
+  </si>
+  <si>
+    <t>516.685.999-53</t>
+  </si>
+  <si>
+    <t>499.076.629-68</t>
+  </si>
+  <si>
+    <t>600.200.853-54</t>
+  </si>
+  <si>
+    <t>486.221.845-87</t>
+  </si>
+  <si>
+    <t>485.651.303-63</t>
+  </si>
+  <si>
+    <t>376.080.705-44</t>
+  </si>
+  <si>
+    <t>232.759.105-82</t>
+  </si>
+  <si>
+    <t>204.544.328-01</t>
+  </si>
+  <si>
+    <t>261.589.815-91</t>
+  </si>
+  <si>
+    <t>201.462.564-68</t>
+  </si>
+  <si>
+    <t>219.870.764-00</t>
+  </si>
+  <si>
+    <t>126.722.847-41</t>
+  </si>
+  <si>
+    <t>126.822.097-34</t>
+  </si>
+  <si>
+    <t>084.884.267-71</t>
+  </si>
+  <si>
+    <t>079.399.707-04</t>
+  </si>
+  <si>
+    <t>072.862.039-16</t>
+  </si>
+  <si>
+    <t>040.951.843-37</t>
+  </si>
+  <si>
+    <t>045.467.057-51</t>
+  </si>
+  <si>
+    <t>034.636.144-30</t>
+  </si>
+  <si>
+    <t>022.369.762-16</t>
+  </si>
+  <si>
+    <t>028.184.653-70</t>
+  </si>
+  <si>
+    <t>018.165.951-44</t>
+  </si>
+  <si>
+    <t>013.894.803-80</t>
+  </si>
+  <si>
+    <t>003.821.171-82</t>
+  </si>
+  <si>
+    <t>003.057.646-67</t>
+  </si>
+  <si>
+    <t>967.483.467-20</t>
+  </si>
+  <si>
+    <t>948.894.735-72</t>
+  </si>
+  <si>
+    <t>890.029.974-34</t>
+  </si>
+  <si>
+    <t>981.475.875-20</t>
+  </si>
+  <si>
+    <t>615.424.587-49</t>
+  </si>
+  <si>
+    <t>623.920.001-82</t>
+  </si>
+  <si>
+    <t>475.907.694-87</t>
+  </si>
+  <si>
+    <t>563.763.081-04</t>
+  </si>
+  <si>
+    <t>507.197.501-72</t>
+  </si>
+  <si>
+    <t>385.379.821-72</t>
+  </si>
+  <si>
+    <t>336.847.823-00</t>
+  </si>
+  <si>
+    <t>332.325.158-00</t>
+  </si>
+  <si>
+    <t>290.597.713-20</t>
+  </si>
+  <si>
+    <t>132.491.477-70</t>
+  </si>
+  <si>
+    <t>082.265.867-47</t>
+  </si>
+  <si>
+    <t>105.693.401-87</t>
+  </si>
+  <si>
+    <t>104.056.866-17</t>
+  </si>
+  <si>
+    <t>038.740.124-50</t>
+  </si>
+  <si>
+    <t>030.704.885-36</t>
+  </si>
+  <si>
+    <t>049.045.843-25</t>
+  </si>
+  <si>
+    <t>037.841.579-47</t>
+  </si>
+  <si>
+    <t>008.868.209-95</t>
+  </si>
+  <si>
+    <t>009.757.504-61</t>
+  </si>
+  <si>
+    <t>008.987.705-56</t>
+  </si>
+  <si>
+    <t>369.436.909-06</t>
+  </si>
+  <si>
+    <t>017.751.515-57</t>
+  </si>
+  <si>
+    <t>234.652.178-70</t>
+  </si>
+  <si>
+    <t>078.046.727-21</t>
+  </si>
+  <si>
+    <t>464.675.213-15</t>
+  </si>
+  <si>
+    <t>602.767.883-62</t>
+  </si>
+  <si>
+    <t>069.430.042-04</t>
+  </si>
+  <si>
+    <t>257.053.258-43</t>
+  </si>
+  <si>
+    <t>181.612.078-28</t>
+  </si>
+  <si>
+    <t>014.168.438-09</t>
+  </si>
+  <si>
+    <t>789.663.104-00</t>
+  </si>
+  <si>
+    <t>729.346.977-20</t>
+  </si>
+  <si>
+    <t>113.028.127-26</t>
+  </si>
+  <si>
+    <t>011.960.014-56</t>
+  </si>
+  <si>
+    <t>354.851.403-00</t>
   </si>
 </sst>
 </file>
@@ -412,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720D66B9-C9B6-4AD3-BFB3-BEA1077C0438}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A197" sqref="A2:XFD197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +1398,6 @@
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -438,263 +1412,2608 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2"/>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4"/>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6"/>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7"/>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9"/>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10"/>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11"/>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12"/>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13"/>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14"/>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15"/>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86"/>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C207">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C218">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C221">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C230">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C231">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C233">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C235">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C238">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C239">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C241">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C246">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C248">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C251">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C253">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C254">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C256">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C258">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C261">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C267">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B268" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C268">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C269">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B270" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C270">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B271" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C271">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C273">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C275">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C276">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C277">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B281" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C281">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C282">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C283">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B285" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B286" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B287" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C287">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B289" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C289">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B290" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B291" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C291">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B292" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C292">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B294" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B295" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C295">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B296" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B297" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C297">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B298" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C298">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B299" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B300" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B301" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B302" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C302">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B303" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B304" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C304">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B305" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C305">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B306" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C306">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B307" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C307">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C308">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B309" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C309">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B310" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C310">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B311" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B312" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B313" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C313">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B314" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B315" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B316" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C316">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B317" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C317">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B318" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C318">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B319" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B320" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B321" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B322" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B323" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B324" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B325" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B326" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C326">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B87:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="B327:B1048576 B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
